--- a/Factures_Excel/1669 - Ventilabec Inc.xlsx
+++ b/Factures_Excel/1669 - Ventilabec Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876C3CA-04EB-4133-963E-73EC2FB6ABFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8DB61-9A73-4253-A43A-FFE4A6B7F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30-04-23" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId9"/>
     <sheet name="2024-11-16 - 24-24643" sheetId="13" r:id="rId10"/>
     <sheet name="2024-12-22 - 24-24724" sheetId="14" r:id="rId11"/>
+    <sheet name="2025-03-01 - 25-24758" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'17-06-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2024-11-16 - 24-24643'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-12-22 - 24-24724'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-03-01 - 25-24758'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'25-07-23'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'28-07-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'28-07-24 (2)'!$A$1:$F$88</definedName>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="152">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -501,6 +503,27 @@
   </si>
   <si>
     <t xml:space="preserve"> - Révision des différentes versions de la documentation juridique afférente à la présente réorganisation;</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24758</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Demandes relativement aux formulaires de l'AMP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Dossier LC Combustion: diverses discussions, courriels, déplacement et rencontre aux bureaux des avocats, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  révision de la documentation juridique;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec vos comptables à la préparation des formulaires T5/Relevés 3 et questions ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse de la valeur marchande de Ventilabec et réflexions ;</t>
   </si>
 </sst>
 </file>
@@ -1191,20 +1214,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1218,13 +1229,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,12 +1276,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1451,6 +1474,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11265" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADCC926-0328-0C6E-8551-24E2E71C6038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2326,14 +2415,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -2347,305 +2436,305 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="115" t="s">
+      <c r="B51" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="115" t="s">
+      <c r="B53" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="115" t="s">
+      <c r="B59" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="115" t="s">
+      <c r="B63" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -2783,19 +2872,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="119"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2803,9 +2892,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2840,31 +2929,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="114" t="s">
+      <c r="A84" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="120"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2876,26 +2965,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="121"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2905,6 +2994,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2921,34 +3038,6 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3232,13 +3321,13 @@
       <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
       <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,10 +3832,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="126" t="s">
+      <c r="B81" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="127"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="108"/>
       <c r="E81" s="109">
         <v>22333.89</v>
@@ -3763,30 +3852,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="110"/>
-      <c r="B83" s="128"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
       <c r="F83" s="111"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="130" t="s">
+      <c r="A84" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="130"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="130"/>
-      <c r="E84" s="130"/>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
       <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="131" t="s">
+      <c r="A85" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="131"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3806,14 +3895,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="132" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="132"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3833,6 +3922,841 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE406C6B-F0BC-4506-A769-279357B7BFD7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="65"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="69"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="71"/>
+      <c r="B34" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="71"/>
+      <c r="B35" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="79"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="71"/>
+      <c r="B37" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="71"/>
+      <c r="B38" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="71"/>
+      <c r="B39" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+      <c r="B41" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="71"/>
+      <c r="B42" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="71"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="71"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="71"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="71"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="71"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="71"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="71"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="71"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="71"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="71"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="71"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="71"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="71"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="71"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="71"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="71"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="71"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="71"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="71"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="71"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="71"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="71"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="71"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="86">
+        <v>17.25</v>
+      </c>
+      <c r="D66" s="87">
+        <v>350</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="71"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="71"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="71"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58"/>
+      <c r="B69" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="92">
+        <v>6037.5</v>
+      </c>
+      <c r="F69" s="92"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="58"/>
+      <c r="B70" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="94"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="95">
+        <v>0</v>
+      </c>
+      <c r="F70" s="95"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58"/>
+      <c r="B71" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="94"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="95">
+        <v>0</v>
+      </c>
+      <c r="F71" s="95"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58"/>
+      <c r="B72" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="94"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="95">
+        <v>0</v>
+      </c>
+      <c r="F72" s="95"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="91"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="97">
+        <v>6037.5</v>
+      </c>
+      <c r="F73" s="97"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="58"/>
+      <c r="B74" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="94"/>
+      <c r="E74" s="99">
+        <v>301.88</v>
+      </c>
+      <c r="F74" s="99"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="58"/>
+      <c r="B75" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="101">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="94"/>
+      <c r="E75" s="102">
+        <v>602.24</v>
+      </c>
+      <c r="F75" s="99"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="91"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="105">
+        <v>6941.62</v>
+      </c>
+      <c r="F77" s="106"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="58"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="100"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="58"/>
+      <c r="B79" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="100"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="58"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="100"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="58"/>
+      <c r="B81" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="129"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="109">
+        <v>6941.62</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="110"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="111"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="72"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="112"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="112"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187737EA-BC46-4A4C-AD51-F68A7D93C91C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4015,7 +4939,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -4042,7 +4966,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="62" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="58"/>
@@ -4052,7 +4976,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58"/>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="58" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="58"/>
@@ -4062,7 +4986,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58"/>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="58" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="58"/>
@@ -4086,7 +5010,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F28" s="65"/>
     </row>
@@ -4099,13 +5023,13 @@
       <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
       <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4137,7 +5061,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="71"/>
       <c r="B34" s="76" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="78"/>
@@ -4157,7 +5081,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="71"/>
       <c r="B36" s="76" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="78"/>
@@ -4167,7 +5091,7 @@
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="71"/>
       <c r="B37" s="76" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C37" s="77"/>
       <c r="D37" s="78"/>
@@ -4177,7 +5101,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71"/>
       <c r="B38" s="76" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="78"/>
@@ -4187,7 +5111,7 @@
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="71"/>
       <c r="B39" s="76" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="78"/>
@@ -4197,7 +5121,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71"/>
       <c r="B40" s="76" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="78"/>
@@ -4207,7 +5131,7 @@
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="71"/>
       <c r="B41" s="76" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="78"/>
@@ -4217,7 +5141,7 @@
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="71"/>
       <c r="B42" s="76" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C42" s="77"/>
       <c r="D42" s="78"/>
@@ -4226,7 +5150,9 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="71"/>
-      <c r="B43" s="76"/>
+      <c r="B43" s="76" t="s">
+        <v>39</v>
+      </c>
       <c r="C43" s="77"/>
       <c r="D43" s="78"/>
       <c r="E43" s="78"/>
@@ -4394,7 +5320,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="71"/>
-      <c r="B64" s="76"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="83"/>
       <c r="D64" s="75"/>
       <c r="E64" s="78"/>
@@ -4416,10 +5342,10 @@
       <c r="A66" s="71"/>
       <c r="B66" s="76"/>
       <c r="C66" s="86">
-        <v>17.25</v>
+        <v>23.5</v>
       </c>
       <c r="D66" s="87">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E66" s="88"/>
       <c r="F66" s="88"/>
@@ -4448,7 +5374,7 @@
       <c r="C69" s="91"/>
       <c r="D69" s="60"/>
       <c r="E69" s="92">
-        <v>6037.5</v>
+        <v>9400</v>
       </c>
       <c r="F69" s="92"/>
     </row>
@@ -4496,7 +5422,7 @@
       <c r="C73" s="91"/>
       <c r="D73" s="60"/>
       <c r="E73" s="97">
-        <v>6037.5</v>
+        <v>9400</v>
       </c>
       <c r="F73" s="97"/>
     </row>
@@ -4510,7 +5436,7 @@
       </c>
       <c r="D74" s="94"/>
       <c r="E74" s="99">
-        <v>301.88</v>
+        <v>470</v>
       </c>
       <c r="F74" s="99"/>
     </row>
@@ -4524,7 +5450,7 @@
       </c>
       <c r="D75" s="94"/>
       <c r="E75" s="102">
-        <v>602.24</v>
+        <v>937.65</v>
       </c>
       <c r="F75" s="99"/>
     </row>
@@ -4544,7 +5470,7 @@
       <c r="C77" s="91"/>
       <c r="D77" s="104"/>
       <c r="E77" s="105">
-        <v>6941.62</v>
+        <v>10807.65</v>
       </c>
       <c r="F77" s="106"/>
     </row>
@@ -4578,13 +5504,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="126" t="s">
+      <c r="B81" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="127"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="108"/>
       <c r="E81" s="109">
-        <v>6941.62</v>
+        <v>10807.65</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -4598,30 +5524,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="110"/>
-      <c r="B83" s="128"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
       <c r="F83" s="111"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="130" t="s">
+      <c r="A84" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="130"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="130"/>
-      <c r="E84" s="130"/>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
       <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="131" t="s">
+      <c r="A85" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="131"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4641,14 +5567,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="132" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="132"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4809,14 +5735,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -4830,289 +5756,289 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -5250,19 +6176,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="119"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5270,9 +6196,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5307,31 +6233,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="114" t="s">
+      <c r="A84" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="120"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5343,26 +6269,792 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="121"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{237EA62F-0627-4225-8550-2A52E576C84B}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2814252-C0AA-4C23-8F0F-D090B055F064}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="51">
+        <v>39.75</v>
+      </c>
+      <c r="D68" s="52">
+        <v>350</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D68*C68</f>
+        <v>13912.5</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>13912.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>695.63</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>1387.77</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>15995.9</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="119"/>
+      <c r="D78" s="119"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>15995.9</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="120"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5418,7 +7110,7 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{237EA62F-0627-4225-8550-2A52E576C84B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{D7FED80D-3176-4064-8ACD-1D073586A1DF}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -5430,15 +7122,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2814252-C0AA-4C23-8F0F-D090B055F064}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F91218-7BBB-47CA-BF75-EBA0A0F2F174}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:D56"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A53" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5491,7 +7183,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5517,7 +7209,7 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="25" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -5560,7 +7252,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -5573,14 +7265,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -5594,291 +7286,291 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="B33" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="B35" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
+      <c r="B37" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="B39" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
+      <c r="B41" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="B43" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="B45" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -5905,7 +7597,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>39.75</v>
+        <v>58.75</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -5922,7 +7614,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>13912.5</v>
+        <v>20562.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -5934,7 +7626,7 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F70" s="21"/>
     </row>
@@ -5959,7 +7651,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>13912.5</v>
+        <v>20687.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -5974,7 +7666,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>695.63</v>
+        <v>1034.3800000000001</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -5989,7 +7681,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>1387.77</v>
+        <v>2063.58</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -6010,25 +7702,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>15995.9</v>
+        <v>23785.46</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="119"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -6036,9 +7728,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -6051,7 +7743,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>15995.9</v>
+        <v>23785.46</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -6073,31 +7765,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="114" t="s">
+      <c r="A84" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="120"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -6109,26 +7801,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="121"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6184,7 +7876,7 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{D7FED80D-3176-4064-8ACD-1D073586A1DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{E444BF2E-BC0D-4C12-A3E6-930F551174FA}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -6196,15 +7888,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F91218-7BBB-47CA-BF75-EBA0A0F2F174}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96637634-D351-411C-93CF-563AD4B69A1A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A53" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6257,7 +7949,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -6283,7 +7975,7 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="25" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -6326,7 +8018,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -6339,14 +8031,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -6360,291 +8052,283 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="B33" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="B35" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
+      <c r="B37" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="B39" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="115" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
+      <c r="B41" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="115" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -6671,7 +8355,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>58.75</v>
+        <v>7.5</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -6688,7 +8372,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>20562.5</v>
+        <v>2625</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -6700,7 +8384,7 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F70" s="21"/>
     </row>
@@ -6725,7 +8409,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>20687.5</v>
+        <v>2625</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -6740,7 +8424,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>1034.3800000000001</v>
+        <v>131.25</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -6755,7 +8439,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>2063.58</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -6776,25 +8460,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>23785.46</v>
+        <v>3018.09</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="119"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -6802,9 +8486,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -6817,7 +8501,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>23785.46</v>
+        <v>3018.09</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -6839,31 +8523,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="114" t="s">
+      <c r="A84" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="120"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -6875,26 +8559,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="121"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6950,7 +8634,7 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{E444BF2E-BC0D-4C12-A3E6-930F551174FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{A9E55060-91CF-465D-BA79-5ABB6AFD5B4F}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -6962,15 +8646,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96637634-D351-411C-93CF-563AD4B69A1A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC63FE-96EC-432E-99AF-3D59EA9B9ADB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7023,7 +8707,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -7092,7 +8776,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -7105,14 +8789,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -7126,283 +8810,281 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="B33" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="B35" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
+      <c r="B37" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="B39" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -7429,7 +9111,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>7.5</v>
+        <v>15.75</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -7446,7 +9128,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>2625</v>
+        <v>5512.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -7483,7 +9165,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>2625</v>
+        <v>5512.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -7498,7 +9180,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>131.25</v>
+        <v>275.63</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -7513,7 +9195,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>261.83999999999997</v>
+        <v>549.87</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -7534,25 +9216,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>3018.09</v>
+        <v>6338</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="119"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -7560,9 +9242,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -7575,7 +9257,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>3018.09</v>
+        <v>6338</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -7597,31 +9279,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="114" t="s">
+      <c r="A84" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="120"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7633,26 +9315,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="121"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7708,762 +9390,6 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{A9E55060-91CF-465D-BA79-5ABB6AFD5B4F}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC63FE-96EC-432E-99AF-3D59EA9B9ADB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="51">
-        <v>15.75</v>
-      </c>
-      <c r="D68" s="52">
-        <v>350</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D68*C68</f>
-        <v>5512.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>5512.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>275.63</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>549.87</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>6338</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>6338</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="121"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{B8C3B5B3-FF2E-4983-A2D1-2C6048385199}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -8619,14 +9545,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8640,279 +9566,279 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9050,19 +9976,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="122"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -9070,9 +9996,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -9107,31 +10033,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="120"/>
-      <c r="C82" s="120"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="120"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="114" t="s">
+      <c r="A83" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="123" t="s">
+      <c r="A84" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="123"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
+      <c r="B84" s="120"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="120"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="120"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -9143,26 +10069,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="121"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="121"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="113"/>
-      <c r="C87" s="113"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="113"/>
-      <c r="F87" s="113"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="123"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="123"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="118"/>
-      <c r="C89" s="119"/>
-      <c r="D89" s="119"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="115"/>
+      <c r="D89" s="115"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9172,14 +10098,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
@@ -9192,29 +10133,14 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{78497022-08DE-4813-BCC6-08B3FF478008}">
@@ -9372,14 +10298,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -9393,271 +10319,271 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9795,19 +10721,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="122"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -9815,9 +10741,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -9852,31 +10778,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="120"/>
-      <c r="C82" s="120"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="120"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="114" t="s">
+      <c r="A83" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="123" t="s">
+      <c r="A84" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="123"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
+      <c r="B84" s="120"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="120"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="120"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -9888,26 +10814,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="121"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="121"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="113"/>
-      <c r="C87" s="113"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="113"/>
-      <c r="F87" s="113"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="123"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="123"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="118"/>
-      <c r="C89" s="119"/>
-      <c r="D89" s="119"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="115"/>
+      <c r="D89" s="115"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9917,13 +10843,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -9936,30 +10879,13 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{DF9CE839-0E11-48A8-BA86-0BB7C6B56BF8}">
@@ -9995,10 +10921,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Factures_Excel/1669 - Ventilabec Inc.xlsx
+++ b/Factures_Excel/1669 - Ventilabec Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8DB61-9A73-4253-A43A-FFE4A6B7F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDEAF7-81DE-4FDD-8B6E-2934071222DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30-04-23" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="2024-11-16 - 24-24643" sheetId="13" r:id="rId10"/>
     <sheet name="2024-12-22 - 24-24724" sheetId="14" r:id="rId11"/>
     <sheet name="2025-03-01 - 25-24758" sheetId="15" r:id="rId12"/>
+    <sheet name="2025-03-31 - 25-24875" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -43,6 +44,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2024-11-16 - 24-24643'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-12-22 - 24-24724'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-03-01 - 25-24758'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-31 - 25-24875'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'25-07-23'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'28-07-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'28-07-24 (2)'!$A$1:$F$88</definedName>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="160">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -524,6 +526,30 @@
   </si>
   <si>
     <t xml:space="preserve"> - Analyse de la valeur marchande de Ventilabec et réflexions ;</t>
+  </si>
+  <si>
+    <t>Le 31 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lecture, analyse et répondre à diverses questions par courriels avec les divers intervenants;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse, réflexions et recherches fiscales permettant de modifier la structure légale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rédaction de directives aux juristes afin de mettre en place la modification légale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision de la documentation juridique;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous;</t>
   </si>
 </sst>
 </file>
@@ -734,7 +760,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +782,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +996,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1217,6 +1249,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1229,25 +1276,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1276,6 +1308,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1502,6 +1537,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADCC926-0328-0C6E-8551-24E2E71C6038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12289" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE05F7-EFEE-8047-F3B5-7AB2F8E5C8F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,14 +2516,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -2436,305 +2537,305 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118" t="s">
+      <c r="B63" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -2872,19 +2973,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="119" t="s">
+      <c r="B78" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2892,9 +2993,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2929,31 +3030,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="120"/>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2965,26 +3066,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2994,34 +3095,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3038,6 +3111,34 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4762,6 +4863,843 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="65"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="69"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="71"/>
+      <c r="B34" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="71"/>
+      <c r="B35" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="79"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="71"/>
+      <c r="B37" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="71"/>
+      <c r="B38" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="71"/>
+      <c r="B39" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+      <c r="B41" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="71"/>
+      <c r="B42" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="71"/>
+      <c r="B43" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="71"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="71"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="71"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="71"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="71"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="71"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="71"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="71"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="71"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="71"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="71"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="71"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="71"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="71"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="71"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="71"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="71"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="71"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="71"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="71"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="71"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="71"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="86">
+        <v>23.5</v>
+      </c>
+      <c r="D66" s="87">
+        <v>400</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="71"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="71"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="71"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58"/>
+      <c r="B69" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="92">
+        <v>9400</v>
+      </c>
+      <c r="F69" s="92"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="58"/>
+      <c r="B70" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="94"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="95">
+        <v>0</v>
+      </c>
+      <c r="F70" s="95"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58"/>
+      <c r="B71" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="94"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="95">
+        <v>0</v>
+      </c>
+      <c r="F71" s="95"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58"/>
+      <c r="B72" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="94"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="95">
+        <v>0</v>
+      </c>
+      <c r="F72" s="95"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="91"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="97">
+        <v>9400</v>
+      </c>
+      <c r="F73" s="97"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="58"/>
+      <c r="B74" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="94"/>
+      <c r="E74" s="99">
+        <v>470</v>
+      </c>
+      <c r="F74" s="99"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="58"/>
+      <c r="B75" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="101">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="94"/>
+      <c r="E75" s="102">
+        <v>937.65</v>
+      </c>
+      <c r="F75" s="99"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="91"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="105">
+        <v>10807.65</v>
+      </c>
+      <c r="F77" s="106"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="58"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="100"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="58"/>
+      <c r="B79" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="100"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="58"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="100"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="58"/>
+      <c r="B81" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="129"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="109">
+        <v>10807.65</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="110"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="111"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="72"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="112"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="112"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382C17A1-8525-44BA-B17B-89680BDA50FD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -4844,7 +5782,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -4939,7 +5877,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -4966,7 +5904,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="59" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="58"/>
@@ -5010,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F28" s="65"/>
     </row>
@@ -5061,7 +5999,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="71"/>
       <c r="B34" s="76" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="78"/>
@@ -5081,7 +6019,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="71"/>
       <c r="B36" s="76" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="78"/>
@@ -5091,7 +6029,7 @@
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="71"/>
       <c r="B37" s="76" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C37" s="77"/>
       <c r="D37" s="78"/>
@@ -5101,7 +6039,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71"/>
       <c r="B38" s="76" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="78"/>
@@ -5111,7 +6049,7 @@
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="71"/>
       <c r="B39" s="76" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="78"/>
@@ -5121,7 +6059,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71"/>
       <c r="B40" s="76" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="78"/>
@@ -5131,7 +6069,7 @@
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="71"/>
       <c r="B41" s="76" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="78"/>
@@ -5141,7 +6079,7 @@
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="71"/>
       <c r="B42" s="76" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C42" s="77"/>
       <c r="D42" s="78"/>
@@ -5151,7 +6089,7 @@
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="71"/>
       <c r="B43" s="76" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C43" s="77"/>
       <c r="D43" s="78"/>
@@ -5160,7 +6098,9 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="71"/>
-      <c r="B44" s="76"/>
+      <c r="B44" s="76" t="s">
+        <v>159</v>
+      </c>
       <c r="C44" s="77"/>
       <c r="D44" s="78"/>
       <c r="E44" s="78"/>
@@ -5342,10 +6282,10 @@
       <c r="A66" s="71"/>
       <c r="B66" s="76"/>
       <c r="C66" s="86">
-        <v>23.5</v>
+        <v>10.5</v>
       </c>
       <c r="D66" s="87">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E66" s="88"/>
       <c r="F66" s="88"/>
@@ -5374,7 +6314,7 @@
       <c r="C69" s="91"/>
       <c r="D69" s="60"/>
       <c r="E69" s="92">
-        <v>9400</v>
+        <v>4042.5</v>
       </c>
       <c r="F69" s="92"/>
     </row>
@@ -5422,7 +6362,7 @@
       <c r="C73" s="91"/>
       <c r="D73" s="60"/>
       <c r="E73" s="97">
-        <v>9400</v>
+        <v>4042.5</v>
       </c>
       <c r="F73" s="97"/>
     </row>
@@ -5436,7 +6376,7 @@
       </c>
       <c r="D74" s="94"/>
       <c r="E74" s="99">
-        <v>470</v>
+        <v>202.13</v>
       </c>
       <c r="F74" s="99"/>
     </row>
@@ -5450,7 +6390,7 @@
       </c>
       <c r="D75" s="94"/>
       <c r="E75" s="102">
-        <v>937.65</v>
+        <v>403.24</v>
       </c>
       <c r="F75" s="99"/>
     </row>
@@ -5470,7 +6410,7 @@
       <c r="C77" s="91"/>
       <c r="D77" s="104"/>
       <c r="E77" s="105">
-        <v>10807.65</v>
+        <v>4647.87</v>
       </c>
       <c r="F77" s="106"/>
     </row>
@@ -5510,7 +6450,7 @@
       <c r="C81" s="129"/>
       <c r="D81" s="108"/>
       <c r="E81" s="109">
-        <v>10807.65</v>
+        <v>4647.87</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -5735,14 +6675,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -5756,289 +6696,289 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -6176,19 +7116,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="119" t="s">
+      <c r="B78" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -6196,9 +7136,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -6233,31 +7173,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="120"/>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -6269,26 +7209,792 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{237EA62F-0627-4225-8550-2A52E576C84B}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2814252-C0AA-4C23-8F0F-D090B055F064}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="51">
+        <v>39.75</v>
+      </c>
+      <c r="D68" s="52">
+        <v>350</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D68*C68</f>
+        <v>13912.5</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>13912.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>695.63</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>1387.77</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>15995.9</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>15995.9</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="119"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6344,7 +8050,7 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{237EA62F-0627-4225-8550-2A52E576C84B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{D7FED80D-3176-4064-8ACD-1D073586A1DF}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -6356,15 +8062,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2814252-C0AA-4C23-8F0F-D090B055F064}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F91218-7BBB-47CA-BF75-EBA0A0F2F174}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:D56"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A53" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6417,7 +8123,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -6443,7 +8149,7 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="25" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -6486,7 +8192,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -6499,14 +8205,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -6520,291 +8226,291 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="B35" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -6831,7 +8537,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>39.75</v>
+        <v>58.75</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -6848,7 +8554,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>13912.5</v>
+        <v>20562.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -6860,7 +8566,7 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F70" s="21"/>
     </row>
@@ -6885,7 +8591,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>13912.5</v>
+        <v>20687.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -6900,7 +8606,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>695.63</v>
+        <v>1034.3800000000001</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -6915,7 +8621,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>1387.77</v>
+        <v>2063.58</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -6936,25 +8642,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>15995.9</v>
+        <v>23785.46</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="119" t="s">
+      <c r="B78" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -6962,9 +8668,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -6977,7 +8683,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>15995.9</v>
+        <v>23785.46</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -6999,31 +8705,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="120"/>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7035,26 +8741,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7110,7 +8816,7 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{D7FED80D-3176-4064-8ACD-1D073586A1DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{E444BF2E-BC0D-4C12-A3E6-930F551174FA}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -7122,15 +8828,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F91218-7BBB-47CA-BF75-EBA0A0F2F174}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96637634-D351-411C-93CF-563AD4B69A1A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A53" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7183,7 +8889,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -7209,7 +8915,7 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="25" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -7252,7 +8958,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -7265,14 +8971,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -7286,291 +8992,283 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="B35" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -7597,7 +9295,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>58.75</v>
+        <v>7.5</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -7614,7 +9312,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>20562.5</v>
+        <v>2625</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -7626,7 +9324,7 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F70" s="21"/>
     </row>
@@ -7651,7 +9349,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>20687.5</v>
+        <v>2625</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -7666,7 +9364,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>1034.3800000000001</v>
+        <v>131.25</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -7681,7 +9379,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>2063.58</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -7702,25 +9400,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>23785.46</v>
+        <v>3018.09</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="119" t="s">
+      <c r="B78" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -7728,9 +9426,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -7743,7 +9441,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>23785.46</v>
+        <v>3018.09</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -7765,31 +9463,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="120"/>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7801,26 +9499,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7876,7 +9574,7 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{E444BF2E-BC0D-4C12-A3E6-930F551174FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{A9E55060-91CF-465D-BA79-5ABB6AFD5B4F}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -7888,15 +9586,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96637634-D351-411C-93CF-563AD4B69A1A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC63FE-96EC-432E-99AF-3D59EA9B9ADB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7949,7 +9647,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -8018,7 +9716,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -8031,14 +9729,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8052,283 +9750,281 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="B35" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -8355,7 +10051,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>7.5</v>
+        <v>15.75</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -8372,7 +10068,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>2625</v>
+        <v>5512.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -8409,7 +10105,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>2625</v>
+        <v>5512.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -8424,7 +10120,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>131.25</v>
+        <v>275.63</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -8439,7 +10135,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>261.83999999999997</v>
+        <v>549.87</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -8460,25 +10156,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>3018.09</v>
+        <v>6338</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="119" t="s">
+      <c r="B78" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -8486,9 +10182,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -8501,7 +10197,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>3018.09</v>
+        <v>6338</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -8523,31 +10219,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="120"/>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -8559,26 +10255,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8634,762 +10330,6 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{A9E55060-91CF-465D-BA79-5ABB6AFD5B4F}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC63FE-96EC-432E-99AF-3D59EA9B9ADB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="51">
-        <v>15.75</v>
-      </c>
-      <c r="D68" s="52">
-        <v>350</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D68*C68</f>
-        <v>5512.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>5512.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>275.63</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>549.87</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>6338</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="119" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>6338</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="120"/>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{B8C3B5B3-FF2E-4983-A2D1-2C6048385199}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -9545,14 +10485,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -9566,279 +10506,279 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9976,19 +10916,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="122"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
+      <c r="B76" s="118"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="119" t="s">
+      <c r="B77" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -9996,9 +10936,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -10033,31 +10973,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
+      <c r="B82" s="121"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="120"/>
-      <c r="C84" s="120"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="120"/>
-      <c r="F84" s="120"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -10069,26 +11009,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="117"/>
-      <c r="E86" s="117"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="123" t="s">
+      <c r="A87" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="123"/>
-      <c r="C87" s="123"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="123"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="114"/>
-      <c r="C89" s="115"/>
-      <c r="D89" s="115"/>
+      <c r="B89" s="119"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="120"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -10098,17 +11038,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
@@ -10121,26 +11070,17 @@
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{78497022-08DE-4813-BCC6-08B3FF478008}">
@@ -10298,14 +11238,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -10319,271 +11259,271 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10721,19 +11661,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="122"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
+      <c r="B76" s="118"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="119" t="s">
+      <c r="B77" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -10741,9 +11681,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -10778,31 +11718,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
+      <c r="B82" s="121"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="124" t="s">
+      <c r="A83" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="120"/>
-      <c r="C84" s="120"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="120"/>
-      <c r="F84" s="120"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -10814,26 +11754,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="117"/>
-      <c r="E86" s="117"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="123" t="s">
+      <c r="A87" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="123"/>
-      <c r="C87" s="123"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="123"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="114"/>
-      <c r="C89" s="115"/>
-      <c r="D89" s="115"/>
+      <c r="B89" s="119"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="120"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -10843,6 +11783,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
@@ -10855,37 +11826,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{DF9CE839-0E11-48A8-BA86-0BB7C6B56BF8}">

--- a/Factures_Excel/1669 - Ventilabec Inc.xlsx
+++ b/Factures_Excel/1669 - Ventilabec Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDEAF7-81DE-4FDD-8B6E-2934071222DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A9E4B-A7BF-44DE-A4B1-FF5910468980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30-04-23" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2024-12-22 - 24-24724" sheetId="14" r:id="rId11"/>
     <sheet name="2025-03-01 - 25-24758" sheetId="15" r:id="rId12"/>
     <sheet name="2025-03-31 - 25-24875" sheetId="16" r:id="rId13"/>
+    <sheet name="2025-05-18 - 25-25019" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -45,6 +46,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-12-22 - 24-24724'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-03-01 - 25-24758'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-31 - 25-24875'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'2025-05-18 - 25-25019'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'25-07-23'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'28-07-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'28-07-24 (2)'!$A$1:$F$88</definedName>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="163">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -550,6 +552,15 @@
   </si>
   <si>
     <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous;</t>
+  </si>
+  <si>
+    <t>Le 18 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-25019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse de la demande des avocats et préparation de la lettre demandée ;</t>
   </si>
 </sst>
 </file>
@@ -1249,20 +1260,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1276,10 +1275,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1308,9 +1322,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1603,6 +1614,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE05F7-EFEE-8047-F3B5-7AB2F8E5C8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13313" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0985380-7C0A-5485-E011-B1C59E4099F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,14 +2593,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -2537,305 +2614,305 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="116" t="s">
+      <c r="B53" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="116" t="s">
+      <c r="B55" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="116" t="s">
+      <c r="B57" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="116" t="s">
+      <c r="B63" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -2973,19 +3050,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2993,9 +3070,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3030,31 +3107,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3066,26 +3143,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3095,6 +3172,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3111,34 +3216,6 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3422,13 +3499,13 @@
       <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3933,10 +4010,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="130"/>
       <c r="D81" s="108"/>
       <c r="E81" s="109">
         <v>22333.89</v>
@@ -3953,30 +4030,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="110"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
       <c r="F83" s="111"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="132" t="s">
+      <c r="A84" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3996,14 +4073,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4289,13 +4366,13 @@
       <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4768,10 +4845,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="130"/>
       <c r="D81" s="108"/>
       <c r="E81" s="109">
         <v>6941.62</v>
@@ -4788,30 +4865,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="110"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
       <c r="F83" s="111"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="132" t="s">
+      <c r="A84" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,14 +4908,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5124,13 +5201,13 @@
       <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5605,10 +5682,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="130"/>
       <c r="D81" s="108"/>
       <c r="E81" s="109">
         <v>10807.65</v>
@@ -5625,30 +5702,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="110"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
       <c r="F83" s="111"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="132" t="s">
+      <c r="A84" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5668,14 +5745,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5695,6 +5772,845 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382C17A1-8525-44BA-B17B-89680BDA50FD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="65"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="69"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="71"/>
+      <c r="B34" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="71"/>
+      <c r="B35" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="79"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="71"/>
+      <c r="B37" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="71"/>
+      <c r="B38" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="71"/>
+      <c r="B39" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+      <c r="B41" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="71"/>
+      <c r="B42" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="71"/>
+      <c r="B43" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="71"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="71"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="71"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="71"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="71"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="71"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="71"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="71"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="71"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="71"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="71"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="71"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="71"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="71"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="71"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="71"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="71"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="71"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="71"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="71"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="71"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="71"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="86">
+        <v>10.5</v>
+      </c>
+      <c r="D66" s="87">
+        <v>385</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="71"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="71"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="71"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58"/>
+      <c r="B69" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="92">
+        <v>4042.5</v>
+      </c>
+      <c r="F69" s="92"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="58"/>
+      <c r="B70" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="94"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="95">
+        <v>0</v>
+      </c>
+      <c r="F70" s="95"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58"/>
+      <c r="B71" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="94"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="95">
+        <v>0</v>
+      </c>
+      <c r="F71" s="95"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58"/>
+      <c r="B72" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="94"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="95">
+        <v>0</v>
+      </c>
+      <c r="F72" s="95"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="91"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="97">
+        <v>4042.5</v>
+      </c>
+      <c r="F73" s="97"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="58"/>
+      <c r="B74" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="94"/>
+      <c r="E74" s="99">
+        <v>202.13</v>
+      </c>
+      <c r="F74" s="99"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="58"/>
+      <c r="B75" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="101">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="94"/>
+      <c r="E75" s="102">
+        <v>403.24</v>
+      </c>
+      <c r="F75" s="99"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="91"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="105">
+        <v>4647.87</v>
+      </c>
+      <c r="F77" s="106"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="58"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="100"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="58"/>
+      <c r="B79" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="100"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="58"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="100"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="58"/>
+      <c r="B81" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="130"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="109">
+        <v>4647.87</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="110"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="111"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="72"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="112"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="112"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0233F6-7DCA-4E8B-A3F3-02F5CA93677D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5782,7 +6698,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="134"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -5877,7 +6793,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -5904,7 +6820,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="62" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="58"/>
@@ -5948,7 +6864,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F28" s="65"/>
     </row>
@@ -5961,13 +6877,13 @@
       <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5999,7 +6915,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="71"/>
       <c r="B34" s="76" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="78"/>
@@ -6019,7 +6935,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="71"/>
       <c r="B36" s="76" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="78"/>
@@ -6039,7 +6955,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71"/>
       <c r="B38" s="76" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="78"/>
@@ -6048,9 +6964,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="71"/>
-      <c r="B39" s="76" t="s">
-        <v>133</v>
-      </c>
+      <c r="B39" s="76"/>
       <c r="C39" s="77"/>
       <c r="D39" s="78"/>
       <c r="E39" s="78"/>
@@ -6058,9 +6972,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71"/>
-      <c r="B40" s="76" t="s">
-        <v>157</v>
-      </c>
+      <c r="B40" s="76"/>
       <c r="C40" s="79"/>
       <c r="D40" s="78"/>
       <c r="E40" s="78"/>
@@ -6068,9 +6980,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="71"/>
-      <c r="B41" s="76" t="s">
-        <v>133</v>
-      </c>
+      <c r="B41" s="76"/>
       <c r="C41" s="77"/>
       <c r="D41" s="78"/>
       <c r="E41" s="78"/>
@@ -6078,9 +6988,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="71"/>
-      <c r="B42" s="76" t="s">
-        <v>158</v>
-      </c>
+      <c r="B42" s="76"/>
       <c r="C42" s="77"/>
       <c r="D42" s="78"/>
       <c r="E42" s="78"/>
@@ -6088,9 +6996,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="71"/>
-      <c r="B43" s="76" t="s">
-        <v>133</v>
-      </c>
+      <c r="B43" s="76"/>
       <c r="C43" s="77"/>
       <c r="D43" s="78"/>
       <c r="E43" s="78"/>
@@ -6098,9 +7004,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="71"/>
-      <c r="B44" s="76" t="s">
-        <v>159</v>
-      </c>
+      <c r="B44" s="76"/>
       <c r="C44" s="77"/>
       <c r="D44" s="78"/>
       <c r="E44" s="78"/>
@@ -6252,7 +7156,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="71"/>
-      <c r="B63" s="89"/>
+      <c r="B63" s="76"/>
       <c r="C63" s="81"/>
       <c r="D63" s="82"/>
       <c r="E63" s="78"/>
@@ -6260,9 +7164,9 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="71"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="75"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="87"/>
       <c r="E64" s="78"/>
       <c r="F64" s="78"/>
     </row>
@@ -6282,7 +7186,7 @@
       <c r="A66" s="71"/>
       <c r="B66" s="76"/>
       <c r="C66" s="86">
-        <v>10.5</v>
+        <v>4.75</v>
       </c>
       <c r="D66" s="87">
         <v>385</v>
@@ -6292,7 +7196,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="71"/>
-      <c r="B67" s="89"/>
+      <c r="B67" s="76"/>
       <c r="C67" s="86"/>
       <c r="D67" s="87"/>
       <c r="E67" s="78"/>
@@ -6300,7 +7204,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="71"/>
-      <c r="B68" s="89"/>
+      <c r="B68" s="76"/>
       <c r="C68" s="90"/>
       <c r="D68" s="90"/>
       <c r="E68" s="90"/>
@@ -6314,7 +7218,7 @@
       <c r="C69" s="91"/>
       <c r="D69" s="60"/>
       <c r="E69" s="92">
-        <v>4042.5</v>
+        <v>1828.75</v>
       </c>
       <c r="F69" s="92"/>
     </row>
@@ -6362,7 +7266,7 @@
       <c r="C73" s="91"/>
       <c r="D73" s="60"/>
       <c r="E73" s="97">
-        <v>4042.5</v>
+        <v>1828.75</v>
       </c>
       <c r="F73" s="97"/>
     </row>
@@ -6376,7 +7280,7 @@
       </c>
       <c r="D74" s="94"/>
       <c r="E74" s="99">
-        <v>202.13</v>
+        <v>91.44</v>
       </c>
       <c r="F74" s="99"/>
     </row>
@@ -6390,7 +7294,7 @@
       </c>
       <c r="D75" s="94"/>
       <c r="E75" s="102">
-        <v>403.24</v>
+        <v>182.42</v>
       </c>
       <c r="F75" s="99"/>
     </row>
@@ -6410,7 +7314,7 @@
       <c r="C77" s="91"/>
       <c r="D77" s="104"/>
       <c r="E77" s="105">
-        <v>4647.87</v>
+        <v>2102.61</v>
       </c>
       <c r="F77" s="106"/>
     </row>
@@ -6444,13 +7348,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="130"/>
       <c r="D81" s="108"/>
       <c r="E81" s="109">
-        <v>4647.87</v>
+        <v>2102.61</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -6464,30 +7368,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="110"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
       <c r="F83" s="111"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="132" t="s">
+      <c r="A84" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6507,14 +7411,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6675,14 +7579,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -6696,289 +7600,289 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -7116,19 +8020,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -7136,9 +8040,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -7173,31 +8077,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7209,26 +8113,792 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{237EA62F-0627-4225-8550-2A52E576C84B}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2814252-C0AA-4C23-8F0F-D090B055F064}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="51">
+        <v>39.75</v>
+      </c>
+      <c r="D68" s="52">
+        <v>350</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D68*C68</f>
+        <v>13912.5</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>13912.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>695.63</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>1387.77</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>15995.9</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>15995.9</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7284,7 +8954,7 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{237EA62F-0627-4225-8550-2A52E576C84B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{D7FED80D-3176-4064-8ACD-1D073586A1DF}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -7296,15 +8966,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2814252-C0AA-4C23-8F0F-D090B055F064}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F91218-7BBB-47CA-BF75-EBA0A0F2F174}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:D56"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A53" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7357,7 +9027,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -7383,7 +9053,7 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="25" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -7426,7 +9096,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -7439,14 +9109,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -7460,291 +9130,291 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="B35" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -7771,7 +9441,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>39.75</v>
+        <v>58.75</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -7788,7 +9458,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>13912.5</v>
+        <v>20562.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -7800,7 +9470,7 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F70" s="21"/>
     </row>
@@ -7825,7 +9495,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>13912.5</v>
+        <v>20687.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -7840,7 +9510,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>695.63</v>
+        <v>1034.3800000000001</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -7855,7 +9525,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>1387.77</v>
+        <v>2063.58</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -7876,25 +9546,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>15995.9</v>
+        <v>23785.46</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -7902,9 +9572,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -7917,7 +9587,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>15995.9</v>
+        <v>23785.46</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -7939,31 +9609,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7975,26 +9645,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8050,7 +9720,7 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{D7FED80D-3176-4064-8ACD-1D073586A1DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{E444BF2E-BC0D-4C12-A3E6-930F551174FA}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -8062,15 +9732,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F91218-7BBB-47CA-BF75-EBA0A0F2F174}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96637634-D351-411C-93CF-563AD4B69A1A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A53" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8123,7 +9793,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -8149,7 +9819,7 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="25" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -8192,7 +9862,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -8205,14 +9875,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8226,291 +9896,283 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="B35" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="116" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -8537,7 +10199,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>58.75</v>
+        <v>7.5</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -8554,7 +10216,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>20562.5</v>
+        <v>2625</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -8566,7 +10228,7 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F70" s="21"/>
     </row>
@@ -8591,7 +10253,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>20687.5</v>
+        <v>2625</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -8606,7 +10268,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>1034.3800000000001</v>
+        <v>131.25</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -8621,7 +10283,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>2063.58</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -8642,25 +10304,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>23785.46</v>
+        <v>3018.09</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -8668,9 +10330,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -8683,7 +10345,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>23785.46</v>
+        <v>3018.09</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -8705,31 +10367,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -8741,26 +10403,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8816,7 +10478,7 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{E444BF2E-BC0D-4C12-A3E6-930F551174FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{A9E55060-91CF-465D-BA79-5ABB6AFD5B4F}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -8828,15 +10490,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96637634-D351-411C-93CF-563AD4B69A1A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC63FE-96EC-432E-99AF-3D59EA9B9ADB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8889,7 +10551,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -8958,7 +10620,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -8971,14 +10633,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8992,283 +10654,281 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="B35" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -9295,7 +10955,7 @@
       <c r="A68" s="46"/>
       <c r="B68" s="47"/>
       <c r="C68" s="51">
-        <v>7.5</v>
+        <v>15.75</v>
       </c>
       <c r="D68" s="52">
         <v>350</v>
@@ -9312,7 +10972,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D68*C68</f>
-        <v>2625</v>
+        <v>5512.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -9349,7 +11009,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>2625</v>
+        <v>5512.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -9364,7 +11024,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>131.25</v>
+        <v>275.63</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -9379,7 +11039,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>261.83999999999997</v>
+        <v>549.87</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -9400,25 +11060,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>3018.09</v>
+        <v>6338</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -9426,9 +11086,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -9441,7 +11101,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>3018.09</v>
+        <v>6338</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -9463,31 +11123,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -9499,26 +11159,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9574,762 +11234,6 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{A9E55060-91CF-465D-BA79-5ABB6AFD5B4F}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC63FE-96EC-432E-99AF-3D59EA9B9ADB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="51">
-        <v>15.75</v>
-      </c>
-      <c r="D68" s="52">
-        <v>350</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D68*C68</f>
-        <v>5512.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>5512.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>275.63</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>549.87</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>6338</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>6338</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{B8C3B5B3-FF2E-4983-A2D1-2C6048385199}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -10485,14 +11389,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -10506,279 +11410,279 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10916,19 +11820,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="118"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="118"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="123"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -10936,9 +11840,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -10973,31 +11877,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="121"/>
-      <c r="C82" s="121"/>
-      <c r="D82" s="121"/>
-      <c r="E82" s="121"/>
+      <c r="B82" s="117"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="115" t="s">
+      <c r="A83" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="121"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -11009,26 +11913,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="114" t="s">
+      <c r="A87" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="119"/>
-      <c r="C89" s="120"/>
-      <c r="D89" s="120"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="116"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -11038,14 +11942,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
@@ -11058,29 +11977,14 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{78497022-08DE-4813-BCC6-08B3FF478008}">
@@ -11238,14 +12142,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -11259,271 +12163,271 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11661,19 +12565,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="118"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="118"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="123"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -11681,9 +12585,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -11718,31 +12622,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="121"/>
-      <c r="C82" s="121"/>
-      <c r="D82" s="121"/>
-      <c r="E82" s="121"/>
+      <c r="B82" s="117"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="115" t="s">
+      <c r="A83" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="121"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -11754,26 +12658,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="114" t="s">
+      <c r="A87" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="119"/>
-      <c r="C89" s="120"/>
-      <c r="D89" s="120"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="116"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -11783,13 +12687,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -11802,30 +12723,13 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{DF9CE839-0E11-48A8-BA86-0BB7C6B56BF8}">
@@ -11861,10 +12765,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="125"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
